--- a/biology/Médecine/Adolf_Törngren_(junior)/Adolf_Törngren_(junior).xlsx
+++ b/biology/Médecine/Adolf_Törngren_(junior)/Adolf_Törngren_(junior).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adolf_T%C3%B6rngren_(junior)</t>
+          <t>Adolf_Törngren_(junior)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johan Adolf Törngren (né le 29 octobre 1860 à Vesilahti – mort le 16 juin 1943 à Helsinki) est un docteur en pharmacologie et chirurgie et un homme politique finlandais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johan Adolf Törngren (né le 29 octobre 1860 à Vesilahti – mort le 16 juin 1943 à Helsinki) est un docteur en pharmacologie et chirurgie et un homme politique finlandais.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adolf_T%C3%B6rngren_(junior)</t>
+          <t>Adolf_Törngren_(junior)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Törngren est militant actif de l'organisation secrète Kagaali qui s'oppose à la russification de la Finlande. Dans les années 1910, Il est député du Parti populaire suédois de Finlande. 
 Il dirige la délégation finlandaise du Traité de Versailles en 1919.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adolf_T%C3%B6rngren_(junior)</t>
+          <t>Adolf_Törngren_(junior)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Studier öfver primära nedredelslägen och förlossningar (1887)
 Recherches sur l’échange des substances entre le liquide amniotique et le sang maternel (1889)
